--- a/CaseAndFatalityDemographicsData/2021-04-16.xlsx
+++ b/CaseAndFatalityDemographicsData/2021-04-16.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdavis197\Desktop\Thursday Reports\Special Demographics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\infect\NBS\Coronavirus(nCoV) 2019\Line Lists from Production\~Kenny Thursday Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0D5B6D7-D985-41AB-87AB-3C1404E18057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00199983-FEEA-46D4-B827-6CC97471FDE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3660" windowWidth="21600" windowHeight="11385" tabRatio="806" firstSheet="3" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
+    <workbookView xWindow="7005" yWindow="2280" windowWidth="21600" windowHeight="11385" tabRatio="806" firstSheet="3" activeTab="5" xr2:uid="{A6E7ED99-6879-4496-BF23-313330724014}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases by Age Group" sheetId="3" r:id="rId1"/>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,11 +581,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>3.4906270200387849E-3</v>
+        <v>3.4824400210745447E-3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -593,11 +593,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1311</v>
+        <v>1326</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>1.6948933419521656E-2</v>
+        <v>1.7039540472121206E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -605,11 +605,11 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>3583</v>
+        <v>3640</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>4.6321913380736914E-2</v>
+        <v>4.6775209139156247E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,11 +617,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>15423</v>
+        <v>15492</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>0.19939237233354881</v>
+        <v>0.19907734614939795</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -629,11 +629,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>16974</v>
+        <v>17054</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.21944408532643828</v>
+        <v>0.21914956501625568</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,11 +641,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>14882</v>
+        <v>14955</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.19239819004524886</v>
+        <v>0.19217671776815431</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -653,11 +653,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>12496</v>
+        <v>12570</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.1615513897866839</v>
+        <v>0.1615286755162621</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -665,11 +665,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4496</v>
+        <v>4525</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>5.8125404007756946E-2</v>
+        <v>5.8147753119418139E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -677,11 +677,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>3032</v>
+        <v>3052</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>3.9198448610213314E-2</v>
+        <v>3.9219213816677159E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -689,11 +689,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>1817</v>
+        <v>1845</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>2.3490627020038783E-2</v>
+        <v>2.3708862874105296E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,11 +701,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>1186</v>
+        <v>1195</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>1.5332902391725921E-2</v>
+        <v>1.5356146956398822E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -713,11 +713,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>1867</v>
+        <v>1881</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>2.4137039431157078E-2</v>
+        <v>2.4171474832624423E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
       </c>
       <c r="C14" s="12">
         <f t="shared" si="0"/>
-        <v>1.6806722689075631E-4</v>
+        <v>1.6705431835412947E-4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(B2:B14)</f>
-        <v>77350</v>
+        <v>77819</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="0"/>
@@ -755,7 +755,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -776,11 +776,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="4">
-        <v>26035</v>
+        <v>26252</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.33658694246929544</v>
+        <v>0.33734692041789283</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -788,11 +788,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="4">
-        <v>50417</v>
+        <v>50670</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.65180349062702003</v>
+        <v>0.65112633161567224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,11 +800,11 @@
         <v>18</v>
       </c>
       <c r="B4" s="4">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>1.1609566903684551E-2</v>
+        <v>1.1526747966434932E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -813,7 +813,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>77350</v>
+        <v>77819</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
@@ -830,7 +830,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,11 +854,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="4">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>1.2281835811247576E-2</v>
+        <v>1.2246366568575797E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -866,11 +866,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="4">
-        <v>12893</v>
+        <v>12924</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>0.16668390433096317</v>
+        <v>0.16607769310836684</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -878,11 +878,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="4">
-        <v>28009</v>
+        <v>28119</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.36210730446024564</v>
+        <v>0.36133849059998202</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -890,11 +890,11 @@
         <v>25</v>
       </c>
       <c r="B5" s="4">
-        <v>491</v>
+        <v>508</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>6.3477698771816421E-3</v>
+        <v>6.5279687479921356E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -902,11 +902,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>26507</v>
+        <v>26773</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.34268907563025208</v>
+        <v>0.34404194348423905</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,11 +914,11 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>8500</v>
+        <v>8542</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>0.10989010989010989</v>
+        <v>0.10976753749084414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -927,7 +927,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B2:B7)</f>
-        <v>77350</v>
+        <v>77819</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
@@ -944,7 +944,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -972,7 +972,7 @@
       </c>
       <c r="C2" s="12">
         <f>B2/$B$15</f>
-        <v>1.2471678895840696E-4</v>
+        <v>1.2369093757730684E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -984,7 +984,7 @@
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C15" si="0">B3/$B$15</f>
-        <v>2.4943357791681393E-4</v>
+        <v>2.4738187515461368E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>6.8594233927123821E-4</v>
+        <v>6.8030015667518758E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1004,11 +1004,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>4.8431686378848033E-3</v>
+        <v>4.8857920343036198E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1016,11 +1016,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>1.6317113222058244E-2</v>
+        <v>1.6327203760204502E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1028,11 +1028,11 @@
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>2305</v>
+        <v>2340</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>4.7912033091521339E-2</v>
+        <v>4.8239465655149666E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1040,11 +1040,11 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>5321</v>
+        <v>5395</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
-        <v>0.1106030056746139</v>
+        <v>0.11121876803826174</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,11 +1052,11 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>4488</v>
+        <v>4526</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
-        <v>9.3288158140888394E-2</v>
+        <v>9.3304197245815124E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1064,11 +1064,11 @@
         <v>10</v>
       </c>
       <c r="B10" s="4">
-        <v>5818</v>
+        <v>5871</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
-        <v>0.12093371302666861</v>
+        <v>0.12103158241939474</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1076,11 +1076,11 @@
         <v>11</v>
       </c>
       <c r="B11" s="4">
-        <v>6455</v>
+        <v>6505</v>
       </c>
       <c r="C11" s="12">
         <f t="shared" si="0"/>
-        <v>0.13417447878775282</v>
+        <v>0.13410159149006348</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1088,11 +1088,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <v>6414</v>
+        <v>6452</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" si="0"/>
-        <v>0.13332224739653703</v>
+        <v>0.13300898820813062</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1100,11 +1100,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="4">
-        <v>16239</v>
+        <v>16339</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="0"/>
-        <v>0.33754598931592839</v>
+        <v>0.3368310381792694</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B15" s="8">
         <f>SUM(B2:B14)</f>
-        <v>48109</v>
+        <v>48508</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" si="0"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1163,11 +1163,11 @@
         <v>16</v>
       </c>
       <c r="B2" s="7">
-        <v>20162</v>
+        <v>20338</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$5</f>
-        <v>0.41908998316323348</v>
+        <v>0.41927104807454441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,11 +1175,11 @@
         <v>17</v>
       </c>
       <c r="B3" s="7">
-        <v>27946</v>
+        <v>28169</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C5" si="0">B3/$B$5</f>
-        <v>0.58088923070527343</v>
+        <v>0.58070833676919276</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>2.0786131493067825E-5</v>
+        <v>2.0615156262884473E-5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B5" s="1">
         <f>SUM(B2:B4)</f>
-        <v>48109</v>
+        <v>48508</v>
       </c>
       <c r="C5" s="16">
         <f t="shared" si="0"/>
@@ -1217,7 +1217,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1241,11 +1241,11 @@
         <v>23</v>
       </c>
       <c r="B2" s="10">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="C2" s="12">
         <f>B2/$B$8</f>
-        <v>2.0910848282026231E-2</v>
+        <v>2.1027459388142163E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1253,11 +1253,11 @@
         <v>21</v>
       </c>
       <c r="B3" s="9">
-        <v>4796</v>
+        <v>4845</v>
       </c>
       <c r="C3" s="12">
         <f t="shared" ref="C3:C8" si="0">B3/$B$8</f>
-        <v>9.9690286640753287E-2</v>
+        <v>9.9880432093675267E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1265,11 +1265,11 @@
         <v>22</v>
       </c>
       <c r="B4" s="10">
-        <v>22329</v>
+        <v>22534</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="0"/>
-        <v>0.46413353010871145</v>
+        <v>0.46454193122783871</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
-        <v>5.44596645118377E-3</v>
+        <v>5.4011709408757318E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1289,11 +1289,11 @@
         <v>20</v>
       </c>
       <c r="B6" s="4">
-        <v>19691</v>
+        <v>19822</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>0.40929971522999853</v>
+        <v>0.408633627442896</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
-        <v>5.1965328732669566E-4</v>
+        <v>5.153789065721118E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>48109</v>
+        <v>48508</v>
       </c>
       <c r="C8" s="16">
         <f t="shared" si="0"/>
